--- a/DCF intrinsic value calculator.xlsx
+++ b/DCF intrinsic value calculator.xlsx
@@ -1,41 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan Fredrik\Dropbox\Valuation spreadsheets and checklists TWBS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/osbert/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FD464F-FE8A-7B40-BB42-CC621E0704F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="11600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UNP" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jan Fredrik</author>
   </authors>
   <commentList>
-    <comment ref="B18" authorId="0" shapeId="0">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -44,7 +56,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -54,16 +66,25 @@
         <r>
           <rPr>
             <sz val="12"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>You can use the 5 year FCF growth rate and use this one instead if the 10 year growth rate seems unreasonable. The 10 year CAGR can be unreasonable if the company began with a very low FCF in year 1 and a high in (TTM)
-Remember you can also change the FCF growth rate manually in the green change cell</t>
+          <t xml:space="preserve">You can use the 5 year FCF growth rate and use this one instead if the 10 year growth rate seems unreasonable. The 10 year CAGR can be unreasonable if the company began with a very low FCF in year 1 and a high in (TTM)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Remember you can also change the FCF growth rate manually in the green change cell</t>
         </r>
       </text>
     </comment>
-    <comment ref="D34" authorId="0" shapeId="0">
+    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -106,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E37" authorId="0" shapeId="0">
+    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -144,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>2 Stage DCF valuation</t>
   </si>
@@ -257,19 +278,10 @@
     <t>Buyprice</t>
   </si>
   <si>
-    <t>Copyright 2017. The Warren Buffett Spreadsheet</t>
-  </si>
-  <si>
     <t>Free cash flow 5 year CAGR</t>
   </si>
   <si>
     <t>DCF Intrinsic Value Calculator</t>
-  </si>
-  <si>
-    <t>Download my full Excel stock valuation spreadsheet that includes 8 valuation models in one spreadsheet</t>
-  </si>
-  <si>
-    <t>A spreadsheet that lets you analyze the price and quality of stocks in a fast and simple way</t>
   </si>
   <si>
     <t>2-stage DCF intrinsic value calculator</t>
@@ -284,14 +296,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
     <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
     <numFmt numFmtId="166" formatCode="#,##0.000_);[Red]\(#,##0.000\)"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,21 +394,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -404,18 +401,22 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FFC00000"/>
-      <name val="Arial"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -759,16 +760,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -782,7 +779,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
@@ -799,7 +796,7 @@
       <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -811,7 +808,7 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -823,7 +820,7 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -846,11 +843,11 @@
       <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
     </xf>
@@ -893,21 +890,18 @@
       <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
     </xf>
@@ -926,11 +920,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -941,23 +935,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
     </xf>
@@ -973,8 +960,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -993,7 +978,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1005,12 +989,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1039,8 +1020,7 @@
       <protection hidden="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1318,662 +1298,634 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="44"/>
+    </row>
+    <row r="3" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="70">
+        <v>43074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="68">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="51">
+        <v>1</v>
+      </c>
+      <c r="C10" s="51">
+        <v>2</v>
+      </c>
+      <c r="D10" s="51">
+        <v>3</v>
+      </c>
+      <c r="E10" s="51">
+        <v>4</v>
+      </c>
+      <c r="F10" s="51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="66">
+        <v>160</v>
+      </c>
+      <c r="C11" s="59">
+        <v>902</v>
+      </c>
+      <c r="D11" s="59">
+        <v>750</v>
+      </c>
+      <c r="E11" s="59">
+        <v>1623</v>
+      </c>
+      <c r="F11" s="59">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-    </row>
-    <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
-    </row>
-    <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="45" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="75" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="76">
-        <v>43074</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="74">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="52">
-        <v>1</v>
-      </c>
-      <c r="C15" s="52">
-        <v>2</v>
-      </c>
-      <c r="D15" s="52">
-        <v>3</v>
-      </c>
-      <c r="E15" s="52">
-        <v>4</v>
-      </c>
-      <c r="F15" s="52">
-        <v>5</v>
-      </c>
-      <c r="G15" s="52">
-        <v>6</v>
-      </c>
-      <c r="H15" s="52">
-        <v>7</v>
-      </c>
-      <c r="I15" s="52">
-        <v>8</v>
-      </c>
-      <c r="J15" s="52">
-        <v>9</v>
-      </c>
-      <c r="K15" s="52">
-        <v>10</v>
-      </c>
-      <c r="L15" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="M15" s="59" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="72">
-        <v>160</v>
-      </c>
-      <c r="C16" s="62">
-        <v>902</v>
-      </c>
-      <c r="D16" s="62">
-        <v>750</v>
-      </c>
-      <c r="E16" s="62">
-        <v>1623</v>
-      </c>
-      <c r="F16" s="62">
-        <v>2612</v>
-      </c>
-      <c r="G16" s="62">
-        <v>2149</v>
-      </c>
-      <c r="H16" s="62">
-        <v>3327</v>
-      </c>
-      <c r="I16" s="62">
-        <v>3039</v>
-      </c>
-      <c r="J16" s="62">
-        <v>2694</v>
-      </c>
-      <c r="K16" s="62">
-        <v>4020</v>
-      </c>
-      <c r="L16" s="62">
-        <v>4176</v>
-      </c>
-      <c r="M16" s="65">
-        <f>(L16/B16)^(1/(11-1))-1</f>
-        <v>0.38568351624087072</v>
-      </c>
-      <c r="N16" s="42"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="61">
+      <c r="B13" s="58">
         <f>(L16/H16)^(1/(6-1))-1</f>
         <v>4.6505554632550794E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="68">
+      <c r="B15" s="63">
         <f>AVERAGE(B16:L16)</f>
-        <v>2313.818181818182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
+        <v>3265.1714285714288</v>
+      </c>
+      <c r="G15" s="51">
+        <v>6</v>
+      </c>
+      <c r="H15" s="51">
+        <v>7</v>
+      </c>
+      <c r="I15" s="51">
+        <v>8</v>
+      </c>
+      <c r="J15" s="51">
+        <v>9</v>
+      </c>
+      <c r="K15" s="51">
+        <v>10</v>
+      </c>
+      <c r="L15" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="69">
+      <c r="B16" s="64">
         <f>AVERAGE(H16:L16)</f>
         <v>3451.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="50" t="s">
+      <c r="G16" s="59">
+        <v>2149</v>
+      </c>
+      <c r="H16" s="59">
+        <v>3327</v>
+      </c>
+      <c r="I16" s="59">
+        <v>3039</v>
+      </c>
+      <c r="J16" s="59">
+        <v>2694</v>
+      </c>
+      <c r="K16" s="59">
+        <v>4020</v>
+      </c>
+      <c r="L16" s="59">
+        <v>4176</v>
+      </c>
+      <c r="M16" s="60">
+        <f>(L16/B11)^(1/(11-1))-1</f>
+        <v>0.38568351624087072</v>
+      </c>
+      <c r="N16" s="41"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="70">
+      <c r="B17" s="65">
         <f>AVERAGE(J16:L16)</f>
         <v>3630</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="39"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="66">
+      <c r="B19" s="61">
         <v>0.09</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="64" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="67">
+      <c r="B20" s="62">
         <v>0.3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="80" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="39"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="81">
+      <c r="B22" s="72">
         <v>798</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="84"/>
-    </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="85"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="87"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="75"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="76"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="78"/>
+    </row>
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="D34" s="46" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="D29" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="42"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="41"/>
+    </row>
+    <row r="30" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="8">
+        <f>IFERROR(IF(D30&lt;&gt;"",D30,AVERAGE(H16:L16)),"")</f>
+        <v>3451.2</v>
+      </c>
+      <c r="D30" s="42"/>
+      <c r="E30" s="41"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="14">
+        <f>IFERROR(MIN(IF(E33&lt;&gt;"",E33,MEDIAN(M16)),50%),"")</f>
+        <v>0.15</v>
+      </c>
+      <c r="D33" s="14">
+        <f>IFERROR((B33*0.8),"")</f>
+        <v>0.12</v>
+      </c>
+      <c r="E33" s="43">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="8">
-        <f>IFERROR(IF(D35&lt;&gt;"",D35,AVERAGE(H16:L16)),"")</f>
-        <v>3451.2</v>
-      </c>
-      <c r="D35" s="43"/>
-      <c r="E35" s="42"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B35" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="15">
+        <f>B19</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
-      <c r="B36" s="5"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="47" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="14">
-        <f>IFERROR(MIN(IF(E38&lt;&gt;"",E38,MEDIAN(M16)),50%),"")</f>
-        <v>0.15</v>
-      </c>
-      <c r="D38" s="14">
-        <f>IFERROR((B38*0.8),"")</f>
-        <v>0.12</v>
-      </c>
-      <c r="E38" s="44">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="13"/>
+    <row r="37" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="16">
+        <f>B22</f>
+        <v>798</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="15">
+        <f>B20</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="71"/>
       <c r="C39" s="5"/>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="21">
+        <v>1</v>
+      </c>
+      <c r="B41" s="22">
+        <f>IFERROR(((B30*C41)+B30),"")</f>
+        <v>3968.8799999999997</v>
+      </c>
+      <c r="C41" s="23">
+        <f>$B$33</f>
+        <v>0.15</v>
+      </c>
+      <c r="D41" s="24">
+        <f t="shared" ref="D41:D50" si="0">IFERROR(B41/((1+D$35)^A41),"")</f>
+        <v>3641.1743119266048</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="21">
+        <v>2</v>
+      </c>
+      <c r="B42" s="22">
+        <f t="shared" ref="B42:B47" si="1">IFERROR(((B41*C42)+B41),"")</f>
+        <v>4564.2119999999995</v>
+      </c>
+      <c r="C42" s="23">
+        <f>$B$33</f>
+        <v>0.15</v>
+      </c>
+      <c r="D42" s="24">
+        <f t="shared" si="0"/>
+        <v>3841.6059254271518</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="21">
+        <v>3</v>
+      </c>
+      <c r="B43" s="22">
+        <f t="shared" si="1"/>
+        <v>5248.8437999999996</v>
+      </c>
+      <c r="C43" s="23">
+        <f>$B$33</f>
+        <v>0.15</v>
+      </c>
+      <c r="D43" s="24">
+        <f t="shared" si="0"/>
+        <v>4053.0704717809399</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="21">
         <v>4</v>
       </c>
-      <c r="B40" s="14">
-        <v>0.02</v>
-      </c>
-      <c r="C40" s="5" t="s">
+      <c r="B44" s="22">
+        <f t="shared" si="1"/>
+        <v>6036.1703699999998</v>
+      </c>
+      <c r="C44" s="23">
+        <f>$B$33</f>
+        <v>0.15</v>
+      </c>
+      <c r="D44" s="24">
+        <f t="shared" si="0"/>
+        <v>4276.1752683927352</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="21">
         <v>5</v>
       </c>
-      <c r="D40" s="15">
-        <f>B24</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
+      <c r="B45" s="22">
+        <f t="shared" si="1"/>
+        <v>6941.5959254999998</v>
+      </c>
+      <c r="C45" s="23">
+        <f>$B$33</f>
+        <v>0.15</v>
+      </c>
+      <c r="D45" s="24">
+        <f t="shared" si="0"/>
+        <v>4511.5610629831599</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="21">
         <v>6</v>
       </c>
-      <c r="B42" s="16">
-        <f>B27</f>
-        <v>798</v>
-      </c>
-      <c r="C42" s="17" t="s">
+      <c r="B46" s="22">
+        <f t="shared" si="1"/>
+        <v>7774.5874365599993</v>
+      </c>
+      <c r="C46" s="23">
+        <f>$D$33</f>
+        <v>0.12</v>
+      </c>
+      <c r="D46" s="24">
+        <f t="shared" si="0"/>
+        <v>4635.7324683863653</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="21">
         <v>7</v>
       </c>
-      <c r="D42" s="15">
-        <f>B25</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="21">
-        <v>1</v>
-      </c>
-      <c r="B46" s="22">
-        <f>IFERROR(((B35*C46)+B35),"")</f>
-        <v>3968.8799999999997</v>
-      </c>
-      <c r="C46" s="23">
-        <f>$B$38</f>
-        <v>0.15</v>
-      </c>
-      <c r="D46" s="24">
-        <f t="shared" ref="D46:D55" si="0">IFERROR(B46/((1+D$40)^A46),"")</f>
-        <v>3641.1743119266048</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="21">
-        <v>2</v>
-      </c>
       <c r="B47" s="22">
-        <f t="shared" ref="B47:B52" si="1">IFERROR(((B46*C47)+B46),"")</f>
-        <v>4564.2119999999995</v>
+        <f t="shared" si="1"/>
+        <v>8707.5379289471985</v>
       </c>
       <c r="C47" s="23">
-        <f>$B$38</f>
-        <v>0.15</v>
+        <f>$D$33</f>
+        <v>0.12</v>
       </c>
       <c r="D47" s="24">
         <f t="shared" si="0"/>
-        <v>3841.6059254271518</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4763.3214354061738</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="21">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B48" s="22">
-        <f t="shared" si="1"/>
-        <v>5248.8437999999996</v>
+        <f>IFERROR(((B47*C48)+B47),"")</f>
+        <v>9752.4424804208629</v>
       </c>
       <c r="C48" s="23">
-        <f>$B$38</f>
-        <v>0.15</v>
+        <f>$D$33</f>
+        <v>0.12</v>
       </c>
       <c r="D48" s="24">
         <f t="shared" si="0"/>
-        <v>4053.0704717809399</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4894.4220253714811</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="21">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B49" s="22">
-        <f t="shared" si="1"/>
-        <v>6036.1703699999998</v>
+        <f>IFERROR(((B48*C49)+B48),"")</f>
+        <v>10922.735578071366</v>
       </c>
       <c r="C49" s="23">
-        <f>$B$38</f>
-        <v>0.15</v>
+        <f t="shared" ref="C49:C50" si="2">$D$33</f>
+        <v>0.12</v>
       </c>
       <c r="D49" s="24">
         <f t="shared" si="0"/>
-        <v>4276.1752683927352</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5029.130888455099</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B50" s="22">
-        <f t="shared" si="1"/>
-        <v>6941.5959254999998</v>
+        <f>IFERROR(((B49*C50)+B49),"")</f>
+        <v>12233.463847439929</v>
       </c>
       <c r="C50" s="23">
-        <f>$B$38</f>
-        <v>0.15</v>
+        <f t="shared" si="2"/>
+        <v>0.12</v>
       </c>
       <c r="D50" s="24">
         <f t="shared" si="0"/>
-        <v>4511.5610629831599</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="21">
-        <v>6</v>
-      </c>
-      <c r="B51" s="22">
-        <f t="shared" si="1"/>
-        <v>7774.5874365599993</v>
-      </c>
-      <c r="C51" s="23">
-        <f>$D$38</f>
-        <v>0.12</v>
-      </c>
-      <c r="D51" s="24">
-        <f t="shared" si="0"/>
-        <v>4635.7324683863653</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="21">
-        <v>7</v>
-      </c>
-      <c r="B52" s="22">
-        <f t="shared" si="1"/>
-        <v>8707.5379289471985</v>
-      </c>
-      <c r="C52" s="23">
-        <f>$D$38</f>
-        <v>0.12</v>
-      </c>
-      <c r="D52" s="24">
-        <f t="shared" si="0"/>
-        <v>4763.3214354061738</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="21">
-        <v>8</v>
-      </c>
-      <c r="B53" s="22">
-        <f>IFERROR(((B52*C53)+B52),"")</f>
-        <v>9752.4424804208629</v>
-      </c>
-      <c r="C53" s="23">
-        <f>$D$38</f>
-        <v>0.12</v>
-      </c>
-      <c r="D53" s="24">
-        <f t="shared" si="0"/>
-        <v>4894.4220253714811</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="21">
-        <v>9</v>
-      </c>
-      <c r="B54" s="22">
-        <f>IFERROR(((B53*C54)+B53),"")</f>
-        <v>10922.735578071366</v>
-      </c>
-      <c r="C54" s="23">
-        <f t="shared" ref="C54:C55" si="2">$D$38</f>
-        <v>0.12</v>
-      </c>
-      <c r="D54" s="24">
-        <f t="shared" si="0"/>
-        <v>5029.130888455099</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="21">
-        <v>10</v>
-      </c>
-      <c r="B55" s="22">
-        <f>IFERROR(((B54*C55)+B54),"")</f>
-        <v>12233.463847439929</v>
-      </c>
-      <c r="C55" s="23">
-        <f t="shared" si="2"/>
-        <v>0.12</v>
-      </c>
-      <c r="D55" s="24">
-        <f t="shared" si="0"/>
         <v>5167.5473349263393</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="28"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="29" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="25"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="28"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="30">
-        <f>IFERROR(((B55*B40)+B55),"")</f>
+      <c r="B52" s="30">
+        <f>IFERROR(((B50*B35)+B50),"")</f>
         <v>12478.133124388727</v>
       </c>
-      <c r="C57" s="31"/>
-      <c r="D57" s="32"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="33" t="s">
+      <c r="C52" s="31"/>
+      <c r="D52" s="32"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="34">
-        <f>SUM(D46:D55)</f>
+      <c r="B53" s="34">
+        <f>SUM(D41:D50)</f>
         <v>44813.741193056056</v>
       </c>
-      <c r="C58" s="35"/>
-      <c r="D58" s="36"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="37" t="s">
+      <c r="C53" s="35"/>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="34">
-        <f>IFERROR((((B57)/($D$40-$B$40))/(1+$D$40)^A55),"")</f>
+      <c r="B54" s="34">
+        <f>IFERROR((((B52)/($D$35-$B$35))/(1+$D$35)^A50),"")</f>
         <v>75298.546880355236</v>
       </c>
-      <c r="C59" s="35"/>
-      <c r="D59" s="36"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="37" t="s">
+      <c r="C54" s="35"/>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="34">
-        <f>IFERROR((B58+B59),"")</f>
+      <c r="B55" s="34">
+        <f>IFERROR((B53+B54),"")</f>
         <v>120112.2880734113</v>
       </c>
-      <c r="C60" s="35"/>
-      <c r="D60" s="36"/>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="37" t="s">
+      <c r="C55" s="35"/>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B61" s="38">
-        <f>B42</f>
+      <c r="B56" s="37">
+        <f>B37</f>
         <v>798</v>
       </c>
-      <c r="C61" s="35"/>
-      <c r="D61" s="36"/>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="39" t="s">
+      <c r="C56" s="35"/>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B62" s="57">
-        <f>IFERROR((B60/B61),"")</f>
+      <c r="B57" s="55">
+        <f>IFERROR((B55/B56),"")</f>
         <v>150.51665172106678</v>
       </c>
-      <c r="C62" s="56"/>
-      <c r="D62" s="36"/>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="53" t="s">
+      <c r="C57" s="54"/>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="B64" s="60">
-        <f>IFERROR(1-(B12/B62),"")</f>
+      <c r="B59" s="57">
+        <f>IFERROR(1-(B7/B57),"")</f>
         <v>0.13630818574869485</v>
       </c>
-      <c r="C64" s="71"/>
-    </row>
-    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="54" t="s">
+    </row>
+    <row r="60" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B65" s="55">
-        <f>(((B62/B$12)^(1/10))-1)</f>
+      <c r="B60" s="53">
+        <f>(((B57/B$7)^(1/10))-1)</f>
         <v>1.4761822201566188E-2</v>
       </c>
-      <c r="C65" s="42"/>
-    </row>
-    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="41" t="s">
+      <c r="C60" s="41"/>
+    </row>
+    <row r="61" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B66" s="73">
-        <f>IFERROR(B62*(1-B$25),"")</f>
+      <c r="B61" s="67">
+        <f>IFERROR(B57*(1-B$20),"")</f>
         <v>105.36165620474674</v>
       </c>
-      <c r="C66" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A31:D32"/>
+    <mergeCell ref="A26:D27"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2" display="Check out my full Excel stock valuation spreadsheet that includes 8 valuation models in one spreadsheet"/>
-    <hyperlink ref="A4" r:id="rId3" display="Check out my full Excel stock valuation spreadsheet that includes 8 valuation models in one spreadsheet"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B21:B22" formulaRange="1"/>
+    <ignoredError sqref="B16:B17" formulaRange="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId5"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>